--- a/assets/upload/3.a.4.dosen_tidak_tetap.xlsx
+++ b/assets/upload/3.a.4.dosen_tidak_tetap.xlsx
@@ -33,32 +33,7 @@
     <author>Adm-pulahta</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>KaPulahtaFTUP:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-YA
-TIDAK</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -86,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="1" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -96,7 +71,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Adm-pulahta:</t>
+          <t>KaPulahtaFTUP:</t>
         </r>
         <r>
           <rPr>
@@ -106,11 +81,12 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-s1, s2, s3</t>
+S2
+S3</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="1" shapeId="0">
+    <comment ref="M1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -135,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="1" shapeId="0">
+    <comment ref="N1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -166,37 +142,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Adm-pulahta:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-YA
-TIDAK</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>npd</t>
   </si>
@@ -219,19 +170,10 @@
     <t>prodi</t>
   </si>
   <si>
-    <t>sertifikasi</t>
-  </si>
-  <si>
     <t>pendidikan_magister</t>
   </si>
   <si>
-    <t>pendidikan_doktor</t>
-  </si>
-  <si>
     <t>bidang_keahlian</t>
-  </si>
-  <si>
-    <t>kesesuaian_kompetensi_inti_ps</t>
   </si>
   <si>
     <t xml:space="preserve">sertifikasi_profesional </t>
@@ -253,7 +195,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,19 +360,6 @@
       <family val="2"/>
       <charset val="1"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1154,10 +1083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,19 +1095,16 @@
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="31.28515625" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="21.42578125" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="28.140625" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="21.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="28.140625" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1189,49 +1115,40 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1246,9 +1163,6 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/upload/3.a.4.dosen_tidak_tetap.xlsx
+++ b/assets/upload/3.a.4.dosen_tidak_tetap.xlsx
@@ -1,39 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KaPulahtaFTUP\Documents\TEMPLATE BORANG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ridho\xampp7.4.25\htdocs\borangft\assets\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1585C55F-324A-42D6-A58C-571E201FDFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="20910" windowHeight="13740"/>
+    <workbookView xWindow="-25320" yWindow="-2025" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dosen" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>KaPulahtaFTUP</author>
     <author>Adm-pulahta</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -61,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -86,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="1" shapeId="0">
+    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -111,43 +104,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Adm-pulahta:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Arsitektur s1
-Teknik Sipil S1
-Teknik Mesin S1
-Teknik Industri S1
-Teknik Informatika S1
-Teknik Elektro S1
-Teknik Mesin D3
-Teknik Elektro D3</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>npd</t>
   </si>
@@ -165,9 +127,6 @@
   </si>
   <si>
     <t>status</t>
-  </si>
-  <si>
-    <t>prodi</t>
   </si>
   <si>
     <t>pendidikan_magister</t>
@@ -194,7 +153,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1082,11 +1041,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1101,10 +1060,9 @@
     <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="28.140625" customWidth="1"/>
     <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1115,40 +1073,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1162,7 +1117,6 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
